--- a/data/NATURALDISASTERS.xlsx
+++ b/data/NATURALDISASTERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C21361B-14E5-4B61-B94A-B75EA2F0B479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4541090B-58D0-4883-A2CF-1489F8DD6C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9CE1555-E185-487D-A8B1-2C9B6DCAF84B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>natural disaster</t>
   </si>
@@ -36,9 +36,6 @@
     <t>historic disaster</t>
   </si>
   <si>
-    <t>thảm hoạ lịch sử</t>
-  </si>
-  <si>
     <t>influenza epidemic</t>
   </si>
   <si>
@@ -54,21 +51,12 @@
     <t>snowfall</t>
   </si>
   <si>
-    <t>mưa tuyết</t>
-  </si>
-  <si>
     <t>high winds</t>
   </si>
   <si>
     <t>gió lớn</t>
   </si>
   <si>
-    <t>food shortage/ famine</t>
-  </si>
-  <si>
-    <t>sự thiếu lương thực/ nạn đói</t>
-  </si>
-  <si>
     <t>enormous = huge</t>
   </si>
   <si>
@@ -78,9 +66,6 @@
     <t>casualty</t>
   </si>
   <si>
-    <t>thương vong</t>
-  </si>
-  <si>
     <t>property damage</t>
   </si>
   <si>
@@ -93,12 +78,6 @@
     <t>lốc xoáy</t>
   </si>
   <si>
-    <t>a hurricane/ a typhoon</t>
-  </si>
-  <si>
-    <t>bão lớn</t>
-  </si>
-  <si>
     <t>a flood</t>
   </si>
   <si>
@@ -132,18 +111,12 @@
     <t>death toll</t>
   </si>
   <si>
-    <t>con số thương vong</t>
-  </si>
-  <si>
     <t>destruction</t>
   </si>
   <si>
     <t>sự phá hủy</t>
   </si>
   <si>
-    <t>cause</t>
-  </si>
-  <si>
     <t>gây ra</t>
   </si>
   <si>
@@ -198,9 +171,6 @@
     <t>magnitude (n)</t>
   </si>
   <si>
-    <t>cường độ</t>
-  </si>
-  <si>
     <t>location (n)</t>
   </si>
   <si>
@@ -216,9 +186,6 @@
     <t>located (adj)</t>
   </si>
   <si>
-    <t>toạ lạc, ở tại</t>
-  </si>
-  <si>
     <t>coastline</t>
   </si>
   <si>
@@ -255,9 +222,6 @@
     <t>làm giảm đi</t>
   </si>
   <si>
-    <t>economic impact (n)</t>
-  </si>
-  <si>
     <t>ảnh hưởng về kinh tế</t>
   </si>
   <si>
@@ -270,22 +234,1046 @@
     <t>tremendous (adj)</t>
   </si>
   <si>
-    <t>kinh khủng</t>
-  </si>
-  <si>
     <t>occurrence (n)</t>
   </si>
   <si>
-    <t>sự xảy ra</t>
-  </si>
-  <si>
     <t>Từ vựng / Cụm từ (English)</t>
   </si>
   <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Nghĩa (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Earthquakes and floods are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>natural disasters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>thảm họa lịch sử</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Titanic sinking was a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>historic disaster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>influenza epidemic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> made many students sick.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We stayed inside during the heavy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>blizzard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>mưa tuyết (lượng tuyết rơi)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The heavy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>snowfall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> blocked the roads.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>High winds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> knocked down several trees.</t>
+    </r>
+  </si>
+  <si>
+    <t>food shortage / famine</t>
+  </si>
+  <si>
+    <t>sự thiếu lương thực / nạn đói</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">War often causes severe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>food shortage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The storm caused </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>enormous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> damage to the city.</t>
+    </r>
+  </si>
+  <si>
+    <t>thương vong (người chết/bị thương)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Luckily, there were no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>casualties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the fire.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The insurance covers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>property damage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A tornado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> destroyed the farm.</t>
+    </r>
+  </si>
+  <si>
+    <t>a hurricane / a typhoon</t>
+  </si>
+  <si>
+    <t>bão lớn (cơn bão nhiệt đới)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People boarded up their windows before the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hurricane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> hit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Heavy rain caused a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>flood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the village.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The heavy rain triggered a massive </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>landslide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The crops died because of the long </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>drought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The destruction after the war was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>horrendous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Japan experiences frequent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>earthquakes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>con số thương vong (tử vong)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>death toll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from the tsunami has risen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The bomb caused widespread </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>destruction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>cause (v)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Smoking can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cause</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lung cancer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>unusual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to have snow in this region.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The floodwaters </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>reached</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the roof of the house.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>countless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> stars in the sky.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Residents were trapped by rising </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>floodwaters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An underwater earthquake can trigger a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tsunami</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The failure of the dam was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>catastrophic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pollution </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>affects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> everyone's health.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>casualty rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> was high in the battle.</t>
+    </r>
+  </si>
+  <si>
+    <t>cường độ (động đất)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The earthquake had a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>magnitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of 7.5.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the camp is near the river.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He suffered a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>severe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> leg injury.</t>
+    </r>
+  </si>
+  <si>
+    <t>tọa lạc, ở tại</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The hotel is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>located</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> near the beach.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vietnam has a long and beautiful </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>coastline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The city has a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>population</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of 1 million.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We focus on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>quality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of our products.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The bridge is under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>construction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She uses a special painting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>technique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This medicine will help </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>lessen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the pain.</t>
+    </r>
+  </si>
+  <si>
+    <t>economic impact</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The virus had a huge </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>economic impact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We expect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>moderate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> rain tomorrow.</t>
+    </r>
+  </si>
+  <si>
+    <t>kinh khủng / to lớn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They made a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tremendous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> effort to finish the job.</t>
+    </r>
+  </si>
+  <si>
+    <t>sự xảy ra / sự cố</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flooding is a common </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>occurrence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> here.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -301,17 +1289,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,17 +1319,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -349,13 +1337,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,405 +1661,488 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BCC017-D7F8-4908-9456-9BF1CF020B4C}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
